--- a/附件10.xlsx
+++ b/附件10.xlsx
@@ -724,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1109,7 +1112,7 @@
       <c r="C2" s="1">
         <v>86</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>1.48741120443718E-3</v>
       </c>
     </row>
@@ -1123,7 +1126,7 @@
       <c r="C3" s="1">
         <v>92</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>3.0239904204323298E-3</v>
       </c>
     </row>
@@ -1137,7 +1140,7 @@
       <c r="C4" s="1">
         <v>95</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>1.48699805586103E-2</v>
       </c>
     </row>
@@ -1151,7 +1154,7 @@
       <c r="C5" s="1">
         <v>93</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>4.16280838962797E-2</v>
       </c>
     </row>
@@ -1165,7 +1168,7 @@
       <c r="C6" s="1">
         <v>90</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>4.4911018361991602E-3</v>
       </c>
     </row>
@@ -1179,7 +1182,7 @@
       <c r="C7" s="1">
         <v>84</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2.2500876573773301E-3</v>
       </c>
     </row>
@@ -1193,7 +1196,7 @@
       <c r="C8" s="1">
         <v>90</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>4.4911018361991602E-3</v>
       </c>
     </row>
@@ -1207,7 +1210,7 @@
       <c r="C9" s="1">
         <v>85</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>7.3416683203786403E-3</v>
       </c>
     </row>
@@ -1221,7 +1224,7 @@
       <c r="C10" s="1">
         <v>93</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>3.9403467352684398E-3</v>
       </c>
     </row>
@@ -1235,7 +1238,7 @@
       <c r="C11" s="1">
         <v>92</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>1.1258237682718599E-3</v>
       </c>
     </row>
@@ -1249,7 +1252,7 @@
       <c r="C12" s="1">
         <v>82</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>1.25009226128137E-3</v>
       </c>
     </row>
@@ -1263,7 +1266,7 @@
       <c r="C13" s="1">
         <v>83</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>1.8903788231860999E-4</v>
       </c>
     </row>
@@ -1277,7 +1280,7 @@
       <c r="C14" s="1">
         <v>89</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>1.3005648147974599E-3</v>
       </c>
     </row>
@@ -1291,7 +1294,7 @@
       <c r="C15" s="1">
         <v>82</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>4.2644274336511899E-4</v>
       </c>
     </row>
@@ -1305,7 +1308,7 @@
       <c r="C16" s="1">
         <v>81</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>9.1862355285166097E-4</v>
       </c>
     </row>
@@ -1319,7 +1322,7 @@
       <c r="C17" s="1">
         <v>108</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>4.7285878705058598E-2</v>
       </c>
     </row>
@@ -1333,7 +1336,7 @@
       <c r="C18" s="1">
         <v>86</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>9.3780121529525307E-3</v>
       </c>
     </row>
@@ -1347,7 +1350,7 @@
       <c r="C19" s="1">
         <v>93</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>9.42916574650687E-3</v>
       </c>
     </row>
@@ -1361,7 +1364,7 @@
       <c r="C20" s="1">
         <v>93</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>9.42916574650687E-3</v>
       </c>
     </row>

--- a/附件10.xlsx
+++ b/附件10.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="21555" windowHeight="9645"/>
   </bookViews>
   <sheets>
-    <sheet name="res" sheetId="1" r:id="rId1"/>
+    <sheet name="cell-specific modules" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
